--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.0-alpha</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:32:24+00:00</t>
+    <t>2023-04-29T06:49:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-29T06:49:35+00:00</t>
+    <t>2023-05-22T06:45:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-22T06:45:24+00:00</t>
+    <t>2023-05-22T06:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-22T06:56:15+00:00</t>
+    <t>2023-05-22T07:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-documentreference-type.valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-22T07:18:56+00:00</t>
+    <t>2023-06-13T20:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -593,10 +593,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
